--- a/Beton.xlsx
+++ b/Beton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel Švejda\Desktop\MemDim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB1099-59F5-420A-A9E8-7A367DD6C6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ABBCA6-7E8C-431E-9C8E-416C6E30E8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,6 +294,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,17 +579,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P25"/>
+  <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
@@ -1200,60 +1206,60 @@
         <v>9</v>
       </c>
       <c r="C14" s="7">
-        <f>IF(0.7*C8^0.31 &lt; 2.8,0.7*C8^0.31,2.8)</f>
-        <v>1.7718107758850909</v>
+        <f>IF(0.7*C8^0.31 &lt; 2.8,-0.7*C8^0.31,-2.8)</f>
+        <v>-1.7718107758850909</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" ref="D14:E14" si="16">IF(0.7*D8^0.31 &lt; 2.8,0.7*D8^0.31,2.8)</f>
-        <v>1.8748370396696974</v>
+        <f t="shared" ref="D14:P14" si="16">IF(0.7*D8^0.31 &lt; 2.8,-0.7*D8^0.31,-2.8)</f>
+        <v>-1.8748370396696974</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="16"/>
-        <v>1.9666045051940388</v>
+        <v>-1.9666045051940388</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" ref="F14" si="17">IF(0.7*F8^0.31 &lt; 2.8,0.7*F8^0.31,2.8)</f>
-        <v>2.0693662482105193</v>
+        <f t="shared" si="16"/>
+        <v>-2.0693662482105193</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ref="G14:P14" si="18">IF(0.7*G8^0.31 &lt; 2.8,0.7*G8^0.31,2.8)</f>
-        <v>2.1618768697354804</v>
+        <f t="shared" si="16"/>
+        <v>-2.1618768697354804</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="18"/>
-        <v>2.2463284691964671</v>
+        <f t="shared" si="16"/>
+        <v>-2.2463284691964671</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="18"/>
-        <v>2.3242499142093389</v>
+        <f t="shared" si="16"/>
+        <v>-2.3242499142093389</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="18"/>
-        <v>2.3967545449312704</v>
+        <f t="shared" si="16"/>
+        <v>-2.3967545449312704</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="18"/>
-        <v>2.4646810048680772</v>
+        <f t="shared" si="16"/>
+        <v>-2.4646810048680772</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="18"/>
-        <v>2.5286784670814431</v>
+        <f t="shared" si="16"/>
+        <v>-2.5286784670814431</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="18"/>
-        <v>2.5892608390866876</v>
+        <f t="shared" si="16"/>
+        <v>-2.5892608390866876</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" si="18"/>
-        <v>2.7017637279883995</v>
+        <f t="shared" si="16"/>
+        <v>-2.7017637279883995</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="18"/>
-        <v>2.8</v>
+        <f t="shared" si="16"/>
+        <v>-2.8</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" si="18"/>
-        <v>2.8</v>
+        <f t="shared" si="16"/>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,51 +1267,51 @@
         <v>10</v>
       </c>
       <c r="C15" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="D15" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E15" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="F15" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="G15" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="H15" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I15" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="J15" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="K15" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="L15" s="8">
-        <f>2.8+27*((98-L8)/100)^4</f>
-        <v>3.2051687499999995</v>
+        <f>-1*(2.8+27*((98-L8)/100)^4)</f>
+        <v>-3.2051687499999995</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" ref="M15:P15" si="19">2.8+27*((98-M8)/100)^4</f>
-        <v>3.0186999999999999</v>
+        <f t="shared" ref="M15:P15" si="17">-1*(2.8+27*((98-M8)/100)^4)</f>
+        <v>-3.0186999999999999</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="19"/>
-        <v>2.8431999999999999</v>
+        <f t="shared" si="17"/>
+        <v>-2.8431999999999999</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="19"/>
-        <v>2.8026999999999997</v>
+        <f t="shared" si="17"/>
+        <v>-2.8026999999999997</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="19"/>
-        <v>2.8</v>
+        <f t="shared" si="17"/>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,51 +1319,51 @@
         <v>11</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D16" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E16" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F16" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G16" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="I16" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="J16" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="K16" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="L16" s="8">
-        <f>2+0.085*(L5-50)^0.53</f>
-        <v>2.1994679057750481</v>
+        <f>-1*(2+0.085*(L5-50)^0.53)</f>
+        <v>-2.1994679057750481</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" ref="M16:P16" si="20">2+0.085*(M5-50)^0.53</f>
-        <v>2.2880175327183223</v>
+        <f t="shared" ref="M16:P16" si="18">-1*(2+0.085*(M5-50)^0.53)</f>
+        <v>-2.2880175327183223</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="20"/>
-        <v>2.4158769243143414</v>
+        <f t="shared" si="18"/>
+        <v>-2.4158769243143414</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="20"/>
-        <v>2.5155765911087431</v>
+        <f t="shared" si="18"/>
+        <v>-2.5155765911087431</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="20"/>
-        <v>2.6004968327615767</v>
+        <f t="shared" si="18"/>
+        <v>-2.6004968327615767</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1365,51 +1371,51 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="D17" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E17" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="F17" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="G17" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="H17" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I17" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="J17" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="K17" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="L17" s="8">
-        <f xml:space="preserve"> 2.6 + 35 * ((90 - L5) / 100)^4</f>
-        <v>3.1252187500000002</v>
+        <f xml:space="preserve"> -1*(2.6 + 35 * ((90 - L5) / 100)^4)</f>
+        <v>-3.1252187500000002</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" ref="M17:P17" si="21" xml:space="preserve"> 2.6 + 35 * ((90 - M5) / 100)^4</f>
-        <v>2.8835000000000002</v>
+        <f t="shared" ref="M17:P17" si="19" xml:space="preserve"> -1*(2.6 + 35 * ((90 - M5) / 100)^4)</f>
+        <v>-2.8835000000000002</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="21"/>
-        <v>2.6560000000000001</v>
+        <f t="shared" si="19"/>
+        <v>-2.6560000000000001</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="21"/>
-        <v>2.6034999999999999</v>
+        <f t="shared" si="19"/>
+        <v>-2.6034999999999999</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="21"/>
-        <v>2.6</v>
+        <f t="shared" si="19"/>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1448,19 +1454,19 @@
         <v>1.7511462499999997</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" ref="M18:P18" si="22" xml:space="preserve"> 1.4 + 23.4 * ((90 - M5) / 100)^4</f>
+        <f t="shared" ref="M18:P18" si="20" xml:space="preserve"> 1.4 + 23.4 * ((90 - M5) / 100)^4</f>
         <v>1.58954</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1.4374399999999998</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1.4023399999999999</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1.4</v>
       </c>
     </row>
@@ -1469,51 +1475,51 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="D19" s="7">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="E19" s="7">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="F19" s="7">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="G19" s="7">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="H19" s="7">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="I19" s="7">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="J19" s="7">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="K19" s="7">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="L19" s="8">
-        <f xml:space="preserve"> 1.75 + 0.55 * ((L5 - 50) / 40)</f>
-        <v>1.8187500000000001</v>
+        <f xml:space="preserve"> -1*(1.75 + 0.55 * ((L5 - 50) / 40))</f>
+        <v>-1.8187500000000001</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" ref="M19:P19" si="23" xml:space="preserve"> 1.75 + 0.55 * ((M5 - 50) / 40)</f>
-        <v>1.8875</v>
+        <f t="shared" ref="M19:P19" si="21" xml:space="preserve"> -1*(1.75 + 0.55 * ((M5 - 50) / 40))</f>
+        <v>-1.8875</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="23"/>
-        <v>2.0249999999999999</v>
+        <f t="shared" si="21"/>
+        <v>-2.0249999999999999</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="23"/>
-        <v>2.1625000000000001</v>
+        <f t="shared" si="21"/>
+        <v>-2.1625000000000001</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="23"/>
-        <v>2.2999999999999998</v>
+        <f t="shared" si="21"/>
+        <v>-2.2999999999999998</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1521,51 +1527,51 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="D20" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E20" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="F20" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="G20" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="H20" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I20" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="J20" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="K20" s="7">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="L20" s="8">
-        <f xml:space="preserve"> 2.6 + 35 * ((90 - L5) / 100)^4</f>
-        <v>3.1252187500000002</v>
+        <f xml:space="preserve"> -1*(2.6 + 35 * ((90 - L5) / 100)^4)</f>
+        <v>-3.1252187500000002</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" ref="M20:P20" si="24" xml:space="preserve"> 2.6 + 35 * ((90 - M5) / 100)^4</f>
-        <v>2.8835000000000002</v>
+        <f t="shared" ref="M20:P20" si="22" xml:space="preserve"> -1*(2.6 + 35 * ((90 - M5) / 100)^4)</f>
+        <v>-2.8835000000000002</v>
       </c>
       <c r="N20" s="8">
-        <f t="shared" si="24"/>
-        <v>2.6560000000000001</v>
+        <f t="shared" si="22"/>
+        <v>-2.6560000000000001</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="24"/>
-        <v>2.6034999999999999</v>
+        <f t="shared" si="22"/>
+        <v>-2.6034999999999999</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" si="24"/>
-        <v>2.6</v>
+        <f t="shared" si="22"/>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1601,6 +1607,118 @@
       <c r="C25" s="13">
         <v>1.1499999999999999</v>
       </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Beton.xlsx
+++ b/Beton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel Švejda\Desktop\MemDim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ABBCA6-7E8C-431E-9C8E-416C6E30E8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DECFC17-A45B-4297-AAB7-245AC9171B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +208,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -244,10 +252,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,6 +296,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,11 +308,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,47 +609,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="9" t="s">
         <v>23</v>
       </c>
@@ -1609,116 +1622,116 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1726,7 +1739,10 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:P3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B9734426-88F0-4C6D-83D3-76C26F14B034}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>